--- a/Document/Excel/PlatformGeneration.xlsx
+++ b/Document/Excel/PlatformGeneration.xlsx
@@ -48,7 +48,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>0,1,2</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="2">
         <v>0.0</v>

--- a/Document/Excel/PlatformGeneration.xlsx
+++ b/Document/Excel/PlatformGeneration.xlsx
@@ -48,7 +48,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>0,1,2</t>
+    <t>0,1,2,3</t>
   </si>
 </sst>
 </file>

--- a/Document/Excel/PlatformGeneration.xlsx
+++ b/Document/Excel/PlatformGeneration.xlsx
@@ -48,7 +48,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>0,1,2,3</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="25.14"/>
     <col customWidth="1" min="3" max="3" width="16.71"/>
-    <col customWidth="1" min="4" max="4" width="22.0"/>
+    <col customWidth="1" min="4" max="4" width="37.0"/>
     <col customWidth="1" min="5" max="5" width="20.43"/>
     <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>

--- a/Document/Excel/PlatformGeneration.xlsx
+++ b/Document/Excel/PlatformGeneration.xlsx
@@ -48,7 +48,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="25.14"/>
     <col customWidth="1" min="3" max="3" width="16.71"/>
-    <col customWidth="1" min="4" max="4" width="37.0"/>
+    <col customWidth="1" min="4" max="4" width="40.71"/>
     <col customWidth="1" min="5" max="5" width="20.43"/>
     <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
